--- a/mercury/src/test/resources/testdata/ExternalLibraryNONPooledTest.xlsx
+++ b/mercury/src/test/resources/testdata/ExternalLibraryNONPooledTest.xlsx
@@ -994,7 +994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="AH27" sqref="AH27"/>
     </sheetView>
   </sheetViews>

--- a/mercury/src/test/resources/testdata/ExternalLibraryNONPooledTest.xlsx
+++ b/mercury/src/test/resources/testdata/ExternalLibraryNONPooledTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26722"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="1340" windowWidth="31800" windowHeight="5960"/>
+    <workbookView xWindow="280" yWindow="740" windowWidth="31800" windowHeight="5960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="129">
   <si>
     <t>cDNAShotgunReadTwoSense</t>
   </si>
@@ -383,9 +383,6 @@
     <t>WholeGenomeShotgun.Resequencing</t>
   </si>
   <si>
-    <t>HiSeqX</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -420,6 +417,12 @@
   </si>
   <si>
     <t>great sample</t>
+  </si>
+  <si>
+    <t>Illumina_P5-Lanah_P7-Cehih</t>
+  </si>
+  <si>
+    <t>HiSeq 2500 Rapid Run</t>
   </si>
 </sst>
 </file>
@@ -581,8 +584,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -685,13 +690,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -1059,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H22" workbookViewId="0">
-      <selection activeCell="V28" sqref="V28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -2173,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C27" s="30" t="s">
         <v>109</v>
@@ -2182,7 +2189,7 @@
         <v>3</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F27" s="25">
         <v>5</v>
@@ -2194,7 +2201,7 @@
         <v>106</v>
       </c>
       <c r="I27" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J27" s="25" t="s">
         <v>105</v>
@@ -2224,10 +2231,10 @@
         <v>4444</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V27" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W27" s="2">
         <v>151</v>
@@ -2242,23 +2249,23 @@
         <v>4</v>
       </c>
       <c r="AA27" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AB27" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AC27" s="44">
         <v>44228</v>
       </c>
       <c r="AD27" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AE27" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF27" s="2"/>
       <c r="AG27" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AH27" s="2" t="s">
         <v>114</v>
@@ -2269,7 +2276,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C28" s="30" t="s">
         <v>109</v>
@@ -2278,7 +2285,7 @@
         <v>3</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F28" s="25">
         <v>5</v>
@@ -2287,13 +2294,13 @@
         <v>6</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I28" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J28" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>35</v>
@@ -2312,7 +2319,9 @@
       <c r="Q28" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="R28" s="2"/>
+      <c r="R28" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="S28" s="26">
         <v>33</v>
       </c>
@@ -2320,10 +2329,10 @@
         <v>4444</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V28" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W28" s="2">
         <v>151</v>
@@ -2338,23 +2347,23 @@
         <v>4</v>
       </c>
       <c r="AA28" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AB28" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AC28" s="44">
         <v>44228</v>
       </c>
       <c r="AD28" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AE28" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF28" s="2"/>
       <c r="AG28" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AH28" s="2" t="s">
         <v>114</v>

--- a/mercury/src/test/resources/testdata/ExternalLibraryNONPooledTest.xlsx
+++ b/mercury/src/test/resources/testdata/ExternalLibraryNONPooledTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26722"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="740" windowWidth="31800" windowHeight="5960"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -395,9 +395,6 @@
     <t>Nobody</t>
   </si>
   <si>
-    <t>HG19</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -423,6 +420,9 @@
   </si>
   <si>
     <t>HiSeq 2500 Rapid Run</t>
+  </si>
+  <si>
+    <t>Homo_sapiens_assembly19</t>
   </si>
 </sst>
 </file>
@@ -533,7 +533,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -583,8 +583,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -594,8 +607,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -685,20 +700,23 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -1066,9 +1084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
@@ -1299,8 +1315,8 @@
       <c r="G6" s="2"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1339,8 +1355,8 @@
       <c r="G7" s="5"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="47"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1690,7 +1706,7 @@
       <c r="B16" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="20" t="s">
         <v>104</v>
       </c>
       <c r="D16" s="16"/>
@@ -2180,7 +2196,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C27" s="30" t="s">
         <v>109</v>
@@ -2201,7 +2217,7 @@
         <v>106</v>
       </c>
       <c r="I27" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J27" s="25" t="s">
         <v>105</v>
@@ -2251,21 +2267,21 @@
       <c r="AA27" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AB27" s="2" t="s">
-        <v>119</v>
+      <c r="AB27" s="45" t="s">
+        <v>128</v>
       </c>
       <c r="AC27" s="44">
         <v>44228</v>
       </c>
       <c r="AD27" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AE27" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF27" s="2"/>
       <c r="AG27" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AH27" s="2" t="s">
         <v>114</v>
@@ -2276,7 +2292,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C28" s="30" t="s">
         <v>109</v>
@@ -2294,13 +2310,13 @@
         <v>6</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I28" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J28" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>35</v>
@@ -2320,7 +2336,7 @@
         <v>108</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S28" s="26">
         <v>33</v>
@@ -2329,7 +2345,7 @@
         <v>4444</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="V28" s="28" t="s">
         <v>117</v>
@@ -2349,21 +2365,21 @@
       <c r="AA28" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AB28" s="2" t="s">
-        <v>119</v>
+      <c r="AB28" s="45" t="s">
+        <v>128</v>
       </c>
       <c r="AC28" s="44">
         <v>44228</v>
       </c>
       <c r="AD28" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AE28" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF28" s="2"/>
       <c r="AG28" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AH28" s="2" t="s">
         <v>114</v>

--- a/mercury/src/test/resources/testdata/ExternalLibraryNONPooledTest.xlsx
+++ b/mercury/src/test/resources/testdata/ExternalLibraryNONPooledTest.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="132">
   <si>
     <t>cDNAShotgunReadTwoSense</t>
   </si>
@@ -424,6 +424,15 @@
   <si>
     <t>Homo_sapiens_assembly19</t>
   </si>
+  <si>
+    <t>Sample Tube Barcode</t>
+  </si>
+  <si>
+    <t>4076255991</t>
+  </si>
+  <si>
+    <t>4076255992</t>
+  </si>
 </sst>
 </file>
 
@@ -610,7 +619,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -682,9 +691,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -705,6 +711,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1074,7 +1084,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1084,7 +1094,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:A28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
@@ -1187,7 +1199,7 @@
     </row>
     <row r="3" spans="1:34" s="29" customFormat="1" ht="13.5" customHeight="1">
       <c r="A3" s="31"/>
-      <c r="B3" s="42"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -1315,8 +1327,8 @@
       <c r="G6" s="2"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="47"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="46"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1355,8 +1367,8 @@
       <c r="G7" s="5"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="47"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="46"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -2090,110 +2102,112 @@
       <c r="AH25" s="2"/>
     </row>
     <row r="26" spans="1:34" s="36" customFormat="1" ht="48.75" customHeight="1" thickBot="1">
-      <c r="A26" s="37"/>
-      <c r="B26" s="38" t="s">
+      <c r="A26" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="40" t="s">
+      <c r="D26" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="40" t="s">
+      <c r="E26" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="40" t="s">
+      <c r="F26" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="G26" s="40" t="s">
+      <c r="G26" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="38" t="s">
+      <c r="H26" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="I26" s="38" t="s">
+      <c r="I26" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="J26" s="38" t="s">
+      <c r="J26" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="K26" s="38" t="s">
+      <c r="K26" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="L26" s="38" t="s">
+      <c r="L26" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="M26" s="38" t="s">
+      <c r="M26" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="N26" s="40" t="s">
+      <c r="N26" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="O26" s="38" t="s">
+      <c r="O26" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="P26" s="40" t="s">
+      <c r="P26" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="Q26" s="41" t="s">
+      <c r="Q26" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="R26" s="41" t="s">
+      <c r="R26" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="S26" s="38" t="s">
+      <c r="S26" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="T26" s="38" t="s">
+      <c r="T26" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="U26" s="40" t="s">
+      <c r="U26" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="V26" s="38" t="s">
+      <c r="V26" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="W26" s="38" t="s">
+      <c r="W26" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="X26" s="38" t="s">
+      <c r="X26" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="Y26" s="38" t="s">
+      <c r="Y26" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="Z26" s="38" t="s">
+      <c r="Z26" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="AA26" s="38" t="s">
+      <c r="AA26" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="AB26" s="38" t="s">
+      <c r="AB26" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="AC26" s="38" t="s">
+      <c r="AC26" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="AD26" s="38" t="s">
+      <c r="AD26" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="AE26" s="38" t="s">
+      <c r="AE26" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="AF26" s="38" t="s">
+      <c r="AF26" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="AG26" s="38" t="s">
+      <c r="AG26" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="AH26" s="38" t="s">
+      <c r="AH26" s="37" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A27" s="33">
-        <v>1</v>
+      <c r="A27" s="48" t="s">
+        <v>130</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>127</v>
@@ -2267,10 +2281,10 @@
       <c r="AA27" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AB27" s="45" t="s">
+      <c r="AB27" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AC27" s="44">
+      <c r="AC27" s="43">
         <v>44228</v>
       </c>
       <c r="AD27" s="2" t="s">
@@ -2287,9 +2301,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:34" s="43" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A28" s="33">
-        <v>1</v>
+    <row r="28" spans="1:34" s="42" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A28" s="48" t="s">
+        <v>131</v>
       </c>
       <c r="B28" s="23" t="s">
         <v>127</v>
@@ -2365,10 +2379,10 @@
       <c r="AA28" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AB28" s="45" t="s">
+      <c r="AB28" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AC28" s="44">
+      <c r="AC28" s="43">
         <v>44228</v>
       </c>
       <c r="AD28" s="2" t="s">
